--- a/debug/test.xlsx
+++ b/debug/test.xlsx
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t xml:space="preserve">source: https://www.521automotive.com/faq</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="246">
   <si>
     <t xml:space="preserve">Question</t>
   </si>
@@ -31,34 +28,736 @@
     <t xml:space="preserve">Answer</t>
   </si>
   <si>
-    <t xml:space="preserve">Ends with comma,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Just a test.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BMW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is BMW a company FIY?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">How quickly should I bring my car in when the check engine light comes on?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When your check engine light comes on, it's your vehicle's way of telling you something isn't right.  It is the same thing that happens to us when we get a cold.  You feel tired but don't know why you feel this way, because your nose hasn't started running and you aren't coughing.  You're body is giving you the first signal that you are sick.  Your check engine light is your vehicle's signal that it's time for a check up before it turns into a coughing, sputtering mess.  Once you notice your check engine light is on, don't panic, but know it is time to take your vehicle in to your local Mesa automotive repair professional for an inspection.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What is an ASE Master Certified Technician?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASE is short for National Institute for Automotive Service Excellence.  ASE is an independent, non-profit organization that tests and certifies automotive professionals.  It is a way to gauge the level of technical expertise a technician has and brings confidence to the vehicle owner.  To be an ASE master certified technician, you have to pass a variety of ASE tests in different subject matters.  To remain ASE certified, a technician must re-test every five years to verify they are keeping with all the advancements in the profession.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">How often should I change my oil and why?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Each automobile manufacturer sets different standards as to when they recommend your vehicle needs an oil change.  In our experience, we have found doing an oil change every 3,000 miles works best.  If you have questions about what oil change schedule would work best for your vehicle, give us a call.</t>
+    <t xml:space="preserve">NEWTEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_________________________</t>
+  </si>
+  <si>
+    <t xml:space="preserve">just a test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cbc.ca alright cbc.ca.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">harvard.edu alright harvard.edu.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">t.me alright t.me.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PASSINGHEREUNDER_________________________</t>
+  </si>
+  <si>
+    <t xml:space="preserve">it was in the E U and in the U K alright.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">it was in his interest(s)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">it was about 1000 alright 1000.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(e.g., # double comma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alliance™?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X, 8, 8 Plus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MyHyundai.com. Opting in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90°F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">car(s)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ie. or ie. alright.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(SUV)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9:00 a.m.–5:00 p.m., alright.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1500 # not 'fifteen hundred and zero'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">every 3000 miles NOT thirty hundred</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please visit the Manuals section of Toyota Owners, and choose your Toyota vehicle.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">171 bp3.blogger.com. # billion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apple App Store® and</t>
+  </si>
+  <si>
+    <t xml:space="preserve">speed ratings) Treadwear - Wear rate.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># does not break well:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"15 minutes prior to shutting off the engine Disconnect the black negative (w) battery cable".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.hyundai.com alright.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">and has no connection capability with your vehicle’s multimedia system. The Scout® GPS Link .</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># color code:.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monday-Friday.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monday - Friday.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">---</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(2000-2005)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">years / 36,000 miles.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10-year/100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">communication preference(s),  # deletes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">it was about 55 cM alright</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarPlay # perhaps all like these split like 'Car Play'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zero zero dollars # except phone numbers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(2006 - Present)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1994 - 2005).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USB   NOT United States</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$600 dollars.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">how many cM or CM or C M alright, but not C Mtest. # ABR Units</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aka or a.k.a. alright # abr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">, etc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This refers to as permanent redirection from one URL to another</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abandonment etc. but # ABR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> test.  # BOL space.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> test . # EOL space.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alright   three spaces.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ---</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How long should I alright &gt;&gt;&gt; NOT 'the first'.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U S or the US, or the U.S. or the U.S.A. or the u.s.a. alright.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.google.com, www.burby.com # NOT *billion*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">at 100k miles.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">between 50k - 75k miles.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Differential(s)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2000s.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3000 miles OR 3,000 miles &gt;&gt;&gt; NOT thirty hundred.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21st.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1990s.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">develop X rays &gt;&gt;&gt; NOT 'develop the tenth rays' # roman-numbers-conversion</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># coordinates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25°11′50.0″N 55°16′26.6″E ; &gt;&gt;&gt; twenty five degrees, eleven minutes, fifty point zero seconds</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># slippingthrough replacements:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A hundred and zero alright.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">and,.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">et cetera alright.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-73%.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">monday–friday, 9:00 a.m.-5:00 p.m.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a.d. and a.d. alright AD alright.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_________Linebreaks________________</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cargill Minnesota   Food, Drink &amp; Tobacco   $114.7 B    155,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Koch Industries Kansas  Multicompany    $110 Be 120,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ICBC    China   $165.3 B    $43.7 B $4,210.9 B  $311 B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">China Construction Bank China   $143.2 B    $37.2 B $3,631.6 B  $261.2 B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the US alright. the US. &gt;&gt;&gt;  "usage" "usable" NOT United States ge.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">it was i.e. yes. it was IE yes &gt;&gt;&gt; "for instance"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt;&gt;&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 member &gt;&gt;&gt; NOT "million".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">by &gt;&gt;&gt; NOT "billion"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">___</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PASSINGHEREABOVE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The sacrum (/ˈsækrəm/ or /ˈseɪkrəm/; plural: sacra or sacrums[1]), in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[2][3] # only 1 is deleted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 cm long (~1 inch) # about one inch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MSC,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">minimisation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Group (AWPAG) # last is converted to non caps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012 by # two thousand and twelve billion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nihr Office</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MTEP is a programme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UK Medicines Information (UKMi)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">whatever p.m.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95th percentile. # not included in my list...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the U.S. # not United States</t>
+  </si>
+  <si>
+    <t xml:space="preserve">etc. # et cetera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">person(s)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">usually 12 months</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AAHCC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">evidence-based # look up where in IRISA code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A podiatrist (/poʊˈdaɪətrɪst/ poh-dye-eh-trist) # second part</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NBRC-CSE # first part does not split</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rank DELIMITER Name DELIMITER Age DELIMITER Earnings DELIMITER Category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1 DELIMITER Floyd Mayweather DELIMITER 42 DELIMITER $285 M DELIMITER Athletes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#2 DELIMITER George Clooney DELIMITER 58 DELIMITER $239 M DELIMITER Actors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n. from the 10th Amendment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adj., adv. 1) essen- tial. 2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">similarity (i.e. it is "distinguished").</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(pen-den-tay lee-tay) adj. Latin for awaiting the litigation (lawsuit). It is applied to court orders (such as temporary child support) which are in effect until the case is tried, or rights which cannot be enforced until the lawsuit is over.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">used by Thomas Hobbes in Leviathan (1651).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adj.,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This usage is OUTPUT United states</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AAÂAÂ©</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(sear-ee-ah-tim) prep. Latin for "one after another" as in a series. Thus, issues or facts are discussed seriatim (or "ad seriatim"), meaning one by one in order. OUTPUT = Meaning one by one in order.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n. 1) obtaining relief or enforcing one's rights without resorting to legal action, such as repossessing a car when payments have not been made, retrieving borrowed or stolen goods, demanding and receiving payment or abating a nuisance (such as digging a ditch to divert flooding from another's prope... # OUTPUT = 'Noun. One'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">revocation  n. 1) mutual cancellation of a contract by the parties to it. 2) withdrawing an offer before it is accepted ("I revoke my offer"). 3) cancelling a document before it has come into legal effect or been acted upon, as revoking a will. 4) to recall a power or authority previously given, as cancelling a...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O.R.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It was a PR stunt man.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLV and CLV and CLV. and C L V. Or (CLV) or (CLV).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">at GOVUK.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intellectual property (IP)  IP refers to</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(CFAs)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SLIPPINGTHROUGH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1000–12 alright. DESIRED One thousand to one thousand and twelve.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phone (605) 545-2950.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The phone number is +1-929-552-443 OR The phone number is 1-929-552-443 OR The phone number is +1 and more.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAILHIGHPRIORITY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PASSINGBEFORE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This was-a dash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$300 K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$285 M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$42.3 M $42 M Auto Racing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It was the 11th and 3rd and 2nd.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Siebe XXI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7   VII</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RICO    n.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the honourable agreement --&gt; ourable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(eg under a will or trust).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A legal adviser; a term used to refer to lawyers in a case.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gas/electric alright</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the and/or alright # can mess up the former regex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mutually-selected arbitrator or panel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The u.s. is a country as well as u.s.a. as well as United States alright.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">it is from 12-55 DESIRED from twelve to fifty five.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THE AMERICAN LANGUAGE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">excessive idling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It was a bmw a44 series.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.50B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$11.50B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$47.11M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00.09M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$2.76M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Refrigerant 134A, tetrafluoroethane C 2H 2F four.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It will be 4am-5am tomorrow.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At 10:00 a.m.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">at 10:00 am</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At 10:54 a.m. DESRED At ten fifty four AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At 10:04 a.m. DESIRED At ten oh four AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At 10:30 a.m. DESIRED At ten thirty AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At 1:00 a.m. ANDAND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At 1:54 a.m. DESRED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At 1:04 a.m. DESIRED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At 1:30 a.m. DESIRED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">monday–friday, 9:00 a.m.–5:00 p.m.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">monday-friday 9-5 a.m.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(ah-for-she-ory) prep. Latin for "with even stronger reason," which applies to a situation in which if one thing is true then it can be inferred that a second thing is even more certainly true. Thus, if Abel is too young to serve as administrator, then his younger brother Cain certainly is too young...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Work done by a lawyer without compensation, for the public good: a lawyer's pro bono work. # replacing comma for column</t>
+  </si>
+  <si>
+    <t xml:space="preserve">organise and Organise.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LINGUISTIC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n. is a noun and v. is a verb.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An ad hoc OR ad-hoc case.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) n. # convert orderning by numbers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1st 2nd 3rd 12th</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1 OR # 22 alright. DESIRED Number one OR number twenty two alright.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7th – 4th century BCE and 12th-55th century AD. DESIRED seventh to fourth century BCE.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">That's bce and BCE. Later there was a.d. and ad but no ce alright.  DESIRED That's BCE and BCE.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- In the year 1500 alright.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The U.S.C. alright.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The non-fiction books</t>
+  </si>
+  <si>
+    <t xml:space="preserve">of drug use, owing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Year 1349–53 alright DESIRED Year thirteen hundred and forty nine to fifty three alright.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">containing " obscene, " " filthy, " or " inappropriate " material.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">On July 12, 2007 DESIRED On July twelve, two thousand and seven.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">During 1969 and 1477 and 1077 DESIRED During nineteen hundred and sixty nine and fourteen hundred and seventy seven and one thousand and seventy seven.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The year 1353 DESIRED The year thirteen hundred and fifty three.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Also in the US. And in the US alright. And in the UK alright. What about the USA? Yes the USA alright.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Banned in the United States until 1959. DESIRED ... until nineteen fifty nine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[33] [2] DESIRED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the american empire and the english class # proper nouns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The years were 1969-1975. DESIRED The years were nineteen sixty nine to nineteen seventy five.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">every 5,000-10,000 miles DESIRED every five thousand to ten thousand miles.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sumer and Akkadian Empire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P&amp;C or p &amp; c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">British vs American the centre and colour and apologise and analyse and travelled and fuelled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">merriam-webster.com DESIRED merriam dash webster dot com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mail lauren@reverb.com. DESIRED Mail lauren at reverb dot com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mail.Ru DESIRED mail dot R U . ANDAND Harvard.Edu DESIRED harvard dot E D U</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Every three months or every 5,000 kilometres,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From august to november on wednesdays and fridays.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M85 is a blend of 85% methanol and 15% gasoline.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">it is gas/electric or gas/electric.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">John a.k.a. the guy OR john a.k.a alright</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Some ™ ® symbols that are replaced.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">it is between 12-55.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12000-15000 miles.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Between 5,000-10,000 dollars.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It is between 50k-44k.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It is about 50k.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It is e.g. the boy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check your A/C or a/c alright.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PASSINGBEFOREBUTTURNEDOFFFORNOW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acronyms: LASER UUSR BMW US alright OR a LASER the UUSR a BMW and the US alright.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAIL_LOWPRIORITY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Department of Defense DoD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.3gp .aa .aac .aax .act .aiff .alac .amr .ape .au .awb .dct .dss .dvf .flac .gsm .iklax .ivs .m4a .m4b .m4p .mmf .mp3 .mpc .msv .nmf .nsf .ogg, .oga, .mogg .opus .ra, .rm .raw .sln .tta .voc .vox .wav .wma .wv .webm .8svx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">by W.E.B. Du Bois PROBLEM I dont know which ones are problematic for pronunciaton.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is a Test to See If word cases outside BOS are dealt with.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What happens to ; semi colons?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Again.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What happens to ; this?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gas N 2O used. But what about K 20 then? BECAUSE the former is a letter, not a 'zero'.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">an audio and/or video</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Or 115V of power DESIRED Or one hundred and fifteen volts of power.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">atmospheric pressure at sea level is 14.7 `psi` ANDAND 'psi' ANDAND psi.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The car-brand honda is very notorious.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRITISHUS # perhaps leave them as is, and then use the excel spelling check to spot whenever exceptions have ocurred, as the conditions to when they happen (non BOL cased word) are rare.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The organisation and the Organisation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Organisation alright?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The colour of it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The colour.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The colour.. # now it is not normalized</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colour of it</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Colour of it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flavour     flavor.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">humour      humor.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">labour      labor.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">neighbour   neighbor.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">analyse     Analyse analyze.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">breathalyse     breathalyze.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">paralyse        paralyze.</t>
   </si>
 </sst>
 </file>
@@ -168,27 +867,27 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B322"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5234375" defaultRowHeight="15.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="56"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" s="1" customFormat="true" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="true" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
         <v>2</v>
       </c>
     </row>
@@ -196,58 +895,1331 @@
       <c r="A3" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="0" t="s">
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="0" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="0" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="0" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="0" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="0" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="0" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="0" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="0" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="0" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="0" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="0" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="0" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="0" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="0" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="0" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="0" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="0" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="0" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="0" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="0" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="0" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="0" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="0" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="0" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="0" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="0" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="0" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="0" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="0" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="0" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="0" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="0" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="0" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="0" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="0" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="0" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="0" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="0" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="0" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="0" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="0" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="0" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="0" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="0" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="0" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="0" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="0" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="0" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="0" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="0" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="0" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="0" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="0" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="0" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="0" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="0" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="0" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="0" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="0" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="0" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="0" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="0" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="0" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="0" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="0" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="0" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="0" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="0" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="0" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="0" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="0" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="0" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A213" s="0" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="0" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A215" s="0" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A216" s="0" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A217" s="0" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="0" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A219" s="0" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A220" s="0" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A221" s="0" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A222" s="0" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A223" s="0" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A224" s="0" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A225" s="0" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A226" s="0" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A227" s="0" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A228" s="0" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A229" s="0" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A230" s="0" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A231" s="0" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A232" s="0" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A233" s="0" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A234" s="0" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A235" s="0" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A236" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A237" s="0" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A238" s="0" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A239" s="0" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A240" s="0" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A241" s="0" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A242" s="0" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="243" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A243" s="0" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="244" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A244" s="0" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="245" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A245" s="0" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A246" s="0" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="247" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A247" s="0" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="248" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A248" s="0" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="249" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A249" s="0" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="250" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A250" s="0" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="251" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A251" s="0" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A252" s="0" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="253" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A253" s="0" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="254" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A254" s="0" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="255" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A255" s="0" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="256" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A256" s="0" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="257" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A257" s="0" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="258" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A258" s="0" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="259" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A259" s="0" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="260" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A260" s="0" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="261" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A261" s="0" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="262" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A262" s="0" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="263" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A263" s="0" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="264" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A264" s="0" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="265" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A265" s="0" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="266" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A266" s="0" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="267" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A267" s="0" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="268" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A268" s="0" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="269" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A269" s="0" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="270" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A270" s="0" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="271" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A271" s="0" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="272" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A272" s="0" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="273" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A273" s="0" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="274" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A274" s="0" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="275" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A275" s="0" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="276" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A276" s="0" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="277" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A277" s="0" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="278" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A278" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="279" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A279" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="280" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A280" s="0" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="281" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A281" s="0" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="282" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A282" s="0" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="283" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A283" s="0" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="284" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A284" s="0" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="288" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A288" s="0" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="289" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A289" s="0" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="290" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A290" s="0" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="291" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A291" s="0" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="292" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A292" s="0" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="293" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A293" s="0" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="294" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A294" s="0" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="295" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A295" s="0" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="296" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A296" s="0" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="297" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A297" s="0" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="298" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A298" s="0" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="299" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A299" s="0" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="300" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A300" s="0" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="301" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A301" s="0" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="304" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A304" s="0" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="305" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A305" s="0" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="308" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A308" s="0" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="309" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A309" s="0" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="310" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A310" s="0" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="311" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A311" s="0" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="312" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A312" s="0" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="313" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A313" s="0" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="315" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A315" s="0" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="316" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A316" s="0" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="317" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A317" s="0" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="318" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A318" s="0" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="320" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A320" s="0" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="321" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A321" s="0" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="322" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A322" s="0" t="s">
+        <v>245</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/debug/test.xlsx
+++ b/debug/test.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="521 FAQ" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="test" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,267 +20,264 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="246">
-  <si>
-    <t xml:space="preserve">Question</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Answer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NEWTEST</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="245">
+  <si>
+    <t xml:space="preserve">terms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Siebe.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90°F alright.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">t.me alright t.me.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90 °F alright.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PASSINGHEREUNDER_________________________</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cbc.ca alright cbc.ca.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">harvard.edu alright harvard.edu.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">it was in the E U and in the U K alright.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">it was in his interest(s)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">it was about 1000 alright 1000.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(e.g., # double comma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alliance™?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X, 8, 8 Plus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MyHyundai.com. Opting in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">car(s)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ie. or ie. alright.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(SUV)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9:00 a.m.–5:00 p.m., alright.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1500 # not 'fifteen hundred and zero'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">every 3000 miles NOT thirty hundred</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please visit the Manuals section of Toyota Owners, and choose your Toyota vehicle.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">171 bp3.blogger.com. # billion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apple App Store® and</t>
+  </si>
+  <si>
+    <t xml:space="preserve">speed ratings) Treadwear - Wear rate.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># does not break well:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"15 minutes prior to shutting off the engine Disconnect the black negative (w) battery cable".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.hyundai.com alright.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">and has no connection capability with your vehicle’s multimedia system. The Scout® GPS Link .</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># color code:.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monday-Friday.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monday - Friday.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">---</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(2000-2005)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">years / 36,000 miles.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10-year/100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">communication preference(s),  # deletes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">it was about 55 cM alright</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CarPlay # perhaps all like these split like 'Car Play'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zero zero dollars # except phone numbers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(2006 - Present)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1994 - 2005).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USB   NOT United States</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$600 dollars.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">how many cM or CM or C M alright, but not C Mtest. # ABR Units</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aka or a.k.a. alright # abr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">, etc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This refers to as permanent redirection from one URL to another</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abandonment etc. but # ABR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> test.  # BOL space.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> test . # EOL space.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alright   three spaces.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ---</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How long should I alright &gt;&gt;&gt; NOT 'the first'.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U S or the US, or the U.S. or the U.S.A. or the u.s.a. alright.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www.google.com, www.burby.com # NOT *billion*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">at 100k miles.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">between 50k - 75k miles.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Differential(s)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2000s.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3000 miles OR 3,000 miles &gt;&gt;&gt; NOT thirty hundred.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21st.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1990s.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">develop X rays &gt;&gt;&gt; NOT 'develop the tenth rays' # roman-numbers-conversion</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># coordinates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25°11′50.0″N 55°16′26.6″E ; &gt;&gt;&gt; twenty five degrees, eleven minutes, fifty point zero seconds</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># slippingthrough replacements:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A hundred and zero alright.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">and,.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">et cetera alright.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-73%.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">monday–friday, 9:00 a.m.-5:00 p.m.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a.d. and a.d. alright AD alright.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_________Linebreaks________________</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cargill Minnesota   Food, Drink &amp; Tobacco   $114.7 B    155,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Koch Industries Kansas  Multicompany    $110 Be 120,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ICBC    China   $165.3 B    $43.7 B $4,210.9 B  $311 B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">China Construction Bank China   $143.2 B    $37.2 B $3,631.6 B  $261.2 B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the US alright. the US. &gt;&gt;&gt;  "usage" "usable" NOT United States ge.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">it was i.e. yes. it was IE yes &gt;&gt;&gt; "for instance"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt;&gt;&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 member &gt;&gt;&gt; NOT "million".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">by &gt;&gt;&gt; NOT "billion"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">___</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PASSINGHEREABOVE</t>
   </si>
   <si>
     <t xml:space="preserve">_________________________</t>
-  </si>
-  <si>
-    <t xml:space="preserve">just a test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cbc.ca alright cbc.ca.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">harvard.edu alright harvard.edu.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">t.me alright t.me.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PASSINGHEREUNDER_________________________</t>
-  </si>
-  <si>
-    <t xml:space="preserve">it was in the E U and in the U K alright.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">it was in his interest(s)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">it was about 1000 alright 1000.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(e.g., # double comma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alliance™?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X, 8, 8 Plus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MyHyundai.com. Opting in</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90°F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">car(s)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ie. or ie. alright.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(SUV)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9:00 a.m.–5:00 p.m., alright.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1500 # not 'fifteen hundred and zero'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">every 3000 miles NOT thirty hundred</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Please visit the Manuals section of Toyota Owners, and choose your Toyota vehicle.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">171 bp3.blogger.com. # billion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apple App Store® and</t>
-  </si>
-  <si>
-    <t xml:space="preserve">speed ratings) Treadwear - Wear rate.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"># does not break well:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"15 minutes prior to shutting off the engine Disconnect the black negative (w) battery cable".</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.hyundai.com alright.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">and has no connection capability with your vehicle’s multimedia system. The Scout® GPS Link .</t>
-  </si>
-  <si>
-    <t xml:space="preserve"># color code:.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monday-Friday.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monday - Friday.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">---</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(2000-2005)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">years / 36,000 miles.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10-year/100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">communication preference(s),  # deletes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">it was about 55 cM alright</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CarPlay # perhaps all like these split like 'Car Play'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zero zero dollars # except phone numbers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(2006 - Present)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1994 - 2005).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USB   NOT United States</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$600 dollars.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">how many cM or CM or C M alright, but not C Mtest. # ABR Units</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aka or a.k.a. alright # abr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">, etc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This refers to as permanent redirection from one URL to another</t>
-  </si>
-  <si>
-    <t xml:space="preserve">abandonment etc. but # ABR</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> test.  # BOL space.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> test . # EOL space.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">alright   three spaces.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ---</t>
-  </si>
-  <si>
-    <t xml:space="preserve">How long should I alright &gt;&gt;&gt; NOT 'the first'.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U S or the US, or the U.S. or the U.S.A. or the u.s.a. alright.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.google.com, www.burby.com # NOT *billion*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">at 100k miles.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">between 50k - 75k miles.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Differential(s)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2000s.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3000 miles OR 3,000 miles &gt;&gt;&gt; NOT thirty hundred.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21st.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1990s.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">develop X rays &gt;&gt;&gt; NOT 'develop the tenth rays' # roman-numbers-conversion</t>
-  </si>
-  <si>
-    <t xml:space="preserve"># coordinates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25°11′50.0″N 55°16′26.6″E ; &gt;&gt;&gt; twenty five degrees, eleven minutes, fifty point zero seconds</t>
-  </si>
-  <si>
-    <t xml:space="preserve"># slippingthrough replacements:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A hundred and zero alright.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">and,.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">et cetera alright.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-73%.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">monday–friday, 9:00 a.m.-5:00 p.m.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a.d. and a.d. alright AD alright.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_________Linebreaks________________</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cargill Minnesota   Food, Drink &amp; Tobacco   $114.7 B    155,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Koch Industries Kansas  Multicompany    $110 Be 120,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ICBC    China   $165.3 B    $43.7 B $4,210.9 B  $311 B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">China Construction Bank China   $143.2 B    $37.2 B $3,631.6 B  $261.2 B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">the US alright. the US. &gt;&gt;&gt;  "usage" "usable" NOT United States ge.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">it was i.e. yes. it was IE yes &gt;&gt;&gt; "for instance"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&gt;&gt;&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 member &gt;&gt;&gt; NOT "million".</t>
-  </si>
-  <si>
-    <t xml:space="preserve">by &gt;&gt;&gt; NOT "billion"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">___</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PASSINGHEREABOVE</t>
   </si>
   <si>
     <t xml:space="preserve">The sacrum (/ˈsækrəm/ or /ˈseɪkrəm/; plural: sacra or sacrums[1]), in</t>
@@ -867,1353 +864,1350 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B322"/>
+  <dimension ref="A1:A322"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="56"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="2" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="3" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>3</v>
+        <v>85</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="0" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="0" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="0" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="0" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="0" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="0" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="0" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="0" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="0" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="0" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="0" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="0" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="0" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="0" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="0" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="0" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="0" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="0" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="0" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="0" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="0" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="0" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="0" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="0" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="0" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="0" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="0" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="0" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="0" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="0" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="0" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="0" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="0" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="0" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="0" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="0" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="0" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="0" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="0" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="0" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="0" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="0" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="0" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="0" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="0" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="0" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="0" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="0" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="0" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="0" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="0" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="0" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="0" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="0" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="0" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="0" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="0" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="0" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="0" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="0" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="0" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="0" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="0" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="0" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="0" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="0" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="0" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="0" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="0" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="0" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="0" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="0" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="0" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="0" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="0" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="0" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="0" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="0" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="0" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="0" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>
